--- a/Assets/OriginalDatas/BattleStrategy.xlsx
+++ b/Assets/OriginalDatas/BattleStrategy.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -426,11 +426,12 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="13" bestFit="1" customWidth="1"/>
